--- a/data/trans_dic/P32C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0547499112809215</v>
+        <v>0.05474991128092151</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02233177360809184</v>
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0129907085736805</v>
+        <v>0.01329816442007119</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009574436511528199</v>
+        <v>0.009197057012358316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003851511282117874</v>
+        <v>0.003888561874841691</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
@@ -725,19 +725,19 @@
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.01538273729620758</v>
+        <v>0.0145161810028907</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01173724690153653</v>
+        <v>0.01126519443136298</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.007232883882636072</v>
+        <v>0.007434557456017472</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002303948179467082</v>
+        <v>0.002330390444783183</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.006091582198108915</v>
+        <v>0.005939809590593862</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05502717573446914</v>
+        <v>0.05649463338944677</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0473056822347735</v>
+        <v>0.04691508994963008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03620083133687425</v>
+        <v>0.04146895566505566</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.04382093745128968</v>
+        <v>0.0458509940465003</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02457514200516418</v>
+        <v>0.02838034263753565</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.1421924310589262</v>
+        <v>0.139795426941162</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04226950625846022</v>
+        <v>0.04221555212653503</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03143774837665303</v>
+        <v>0.0307001651723273</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02193981291125077</v>
+        <v>0.02157941106972346</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05916930469827656</v>
+        <v>0.06502612673214477</v>
       </c>
     </row>
     <row r="7">
@@ -836,33 +836,33 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009859093296812879</v>
+        <v>0.01111071144666645</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007910620526304729</v>
+        <v>0.007784758961397675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008317667035856001</v>
+        <v>0.008358002179159449</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.004672446897668065</v>
+        <v>0.004656987907725265</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>0.004109196906764772</v>
+        <v>0.00416111928944856</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01044590811789041</v>
+        <v>0.0114756806284473</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.005383597856161608</v>
+        <v>0.005481153380242085</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008610054556712991</v>
+        <v>0.008832361738376687</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>0</v>
@@ -876,36 +876,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03923003236128311</v>
+        <v>0.03871153233649342</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03547446273628977</v>
+        <v>0.03344694102726486</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03921201851562275</v>
+        <v>0.03688809080486685</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.04694120955729098</v>
+        <v>0.04420587478194993</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.03664552665995669</v>
+        <v>0.03309060851631905</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03000217531788303</v>
+        <v>0.03218697742883228</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0336576591510299</v>
+        <v>0.03613101717735852</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02418172400975221</v>
+        <v>0.02350030975909136</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03098665638421567</v>
+        <v>0.03157027185010731</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01075886929959442</v>
+        <v>0.01085440406526924</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.007550187288042731</v>
+        <v>0.007550187288042729</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.006247021284580812</v>
@@ -964,16 +964,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002206098924445133</v>
+        <v>0.002159824847466496</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01292892535003207</v>
+        <v>0.01281406554358165</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002179854102929903</v>
+        <v>0.003739625842450913</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003622888465962322</v>
+        <v>0.003631391741700345</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001540323431922175</v>
+        <v>0.001623785178604431</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008453347530918483</v>
+        <v>0.008005950684526187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00237730343156243</v>
+        <v>0.002360945593084087</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.002673321522239314</v>
+        <v>0.003317248048161235</v>
       </c>
     </row>
     <row r="12">
@@ -1004,36 +1004,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02143797802721644</v>
+        <v>0.01965938242319707</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04486427939367827</v>
+        <v>0.04418542992889374</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02426909349428678</v>
+        <v>0.02645242654643296</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03210880160639919</v>
+        <v>0.0336500077097294</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02763299418861082</v>
+        <v>0.02199646885657643</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.02569144309668635</v>
+        <v>0.02939164914000684</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01457716401557664</v>
+        <v>0.01597620155074512</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02929155205528739</v>
+        <v>0.02846213447531631</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01718501862165436</v>
+        <v>0.01690640241891912</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02268510965707666</v>
+        <v>0.02112307551718046</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01140936170759749</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.007123021402244147</v>
+        <v>0.007123021402244148</v>
       </c>
     </row>
     <row r="14">
@@ -1092,36 +1092,36 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002955997033103435</v>
+        <v>0.002904357573178348</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01077724982740823</v>
+        <v>0.01088805382665429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002849069316208275</v>
+        <v>0.002741952516223499</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002620515578295508</v>
+        <v>0.003190399593355021</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>0.003767958137809614</v>
+        <v>0.003773073014763094</v>
       </c>
       <c r="J14" s="5" t="inlineStr"/>
       <c r="K14" s="5" t="n">
-        <v>0.003791074924679529</v>
+        <v>0.002434602130755728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.007092398719686082</v>
+        <v>0.007064382124186456</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.004875223246565758</v>
+        <v>0.004842455277756792</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0020292847014256</v>
+        <v>0.001983329036768851</v>
       </c>
     </row>
     <row r="15">
@@ -1132,36 +1132,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0335506194356865</v>
+        <v>0.0352845805686547</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04589837758115065</v>
+        <v>0.050822864259451</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02532951306686897</v>
+        <v>0.02758479328567418</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02857764069654474</v>
+        <v>0.0262343407361985</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03471028607401766</v>
+        <v>0.03089831891453044</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.03614877205910588</v>
+        <v>0.03280259448625023</v>
       </c>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>0.02678799252722762</v>
+        <v>0.02829746318705728</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03222574420574568</v>
+        <v>0.03165340065984664</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02256757325492751</v>
+        <v>0.02163217225281247</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01693180804593351</v>
+        <v>0.01588322183843258</v>
       </c>
     </row>
     <row r="16">
@@ -1220,16 +1220,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01467447663483749</v>
+        <v>0.01506682994417667</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003499301139772585</v>
+        <v>0.003485825545375951</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01189313223828308</v>
+        <v>0.01204310467277919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01131818553113542</v>
+        <v>0.01077671442319169</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
@@ -1237,19 +1237,19 @@
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.004629960229519782</v>
+        <v>0.004149033813571815</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01033623641303061</v>
+        <v>0.01033634927371353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.004788153024168334</v>
+        <v>0.005189146903404138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.00834969530476125</v>
+        <v>0.008293631371134456</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01201608495170563</v>
+        <v>0.01149700584667893</v>
       </c>
     </row>
     <row r="18">
@@ -1260,36 +1260,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0664795911680192</v>
+        <v>0.06747459699737551</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03481542416617413</v>
+        <v>0.03087276984922705</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05565215940020336</v>
+        <v>0.05329944802345566</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04750138745130501</v>
+        <v>0.04448604340964209</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.05573206362892077</v>
+        <v>0.06242037976916302</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.04090711681616739</v>
+        <v>0.03734048313329288</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04687734373384743</v>
+        <v>0.04691613144453992</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0284898284076593</v>
+        <v>0.02976882988419012</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03871915613890081</v>
+        <v>0.03895738689891366</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03720153744148652</v>
+        <v>0.03808197829186061</v>
       </c>
     </row>
     <row r="19">
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.006281155690027478</v>
+        <v>0.006313698452990808</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.005237354152934941</v>
+        <v>0.005246710029561044</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.005368454847427579</v>
+        <v>0.005280162670994862</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
@@ -1369,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.004716006526701525</v>
+        <v>0.004681608211384798</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.003788017408955435</v>
+        <v>0.00375569709266873</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.005253149601797132</v>
+        <v>0.004712474580182044</v>
       </c>
     </row>
     <row r="21">
@@ -1386,34 +1386,34 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03553829331695568</v>
+        <v>0.02894914536426215</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05639637609581777</v>
+        <v>0.05521678636261415</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04248523065086764</v>
+        <v>0.05132342142628663</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03488268326661829</v>
+        <v>0.03353590727210359</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.03222307853091855</v>
+        <v>0.03886972453406042</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02907699607510118</v>
+        <v>0.02427307040733171</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04907393114997134</v>
+        <v>0.03865769198943909</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03425886895915479</v>
+        <v>0.03332649252302124</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.02692348920042707</v>
+        <v>0.02705285788618571</v>
       </c>
     </row>
     <row r="22">
@@ -1437,7 +1437,7 @@
         <v>0.01934880324444364</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.02230694350210351</v>
+        <v>0.02230694350210352</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
@@ -1472,14 +1472,14 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01077955124917179</v>
+        <v>0.01092203042211905</v>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.005145866095676083</v>
+        <v>0.005079336985402896</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
@@ -1488,14 +1488,14 @@
         <v>0</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.008906620161237624</v>
+        <v>0.009117117584310981</v>
       </c>
       <c r="L23" s="5" t="inlineStr"/>
       <c r="M23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.007666153962395543</v>
+        <v>0.007035124315185719</v>
       </c>
     </row>
     <row r="24">
@@ -1506,30 +1506,30 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1005841159108253</v>
+        <v>0.1009533830412272</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.0569732105588911</v>
+        <v>0.06660615655423988</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05372312672127518</v>
+        <v>0.05345249700088388</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.07806785527942155</v>
+        <v>0.07354447664209919</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08646211922183737</v>
+        <v>0.08050179355193003</v>
       </c>
       <c r="L24" s="5" t="inlineStr"/>
       <c r="M24" s="5" t="n">
-        <v>0.05298424990403496</v>
+        <v>0.04334327239646871</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04790797793243907</v>
+        <v>0.04844295807414662</v>
       </c>
     </row>
     <row r="25">
@@ -1588,40 +1588,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01281693896424134</v>
+        <v>0.01301971826147105</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0141874989351376</v>
+        <v>0.01440559607124159</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0108497081337066</v>
+        <v>0.01098864439370814</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.007756922608885372</v>
+        <v>0.007347989404332811</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.003933230639320762</v>
+        <v>0.003902136191402368</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0009630792345362535</v>
+        <v>0.0009595856740596809</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.001914915120943003</v>
+        <v>0.001850456403285145</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.006341186129824283</v>
+        <v>0.005824101523974954</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01116283748078772</v>
+        <v>0.01164475649040785</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01039647863444479</v>
+        <v>0.01039946988470924</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.008696398831012439</v>
+        <v>0.00880114899556053</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.008516395485283866</v>
+        <v>0.008191063477085071</v>
       </c>
     </row>
     <row r="27">
@@ -1632,40 +1632,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02601311303635077</v>
+        <v>0.02572882220392149</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02727992250659002</v>
+        <v>0.02836668477726434</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0221994370134335</v>
+        <v>0.02214979907232317</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01742727797994687</v>
+        <v>0.01763653451445413</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0185296062380959</v>
+        <v>0.0184296980178311</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.007838732907150991</v>
+        <v>0.008626124392514744</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01149496371059047</v>
+        <v>0.0109407341170745</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0261580429546209</v>
+        <v>0.02341685692354535</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02079714728170491</v>
+        <v>0.02140319273544139</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01923393796227092</v>
+        <v>0.01899899703076095</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01693567000448033</v>
+        <v>0.01695520910173678</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01714540060837011</v>
+        <v>0.01699467884024447</v>
       </c>
     </row>
     <row r="28">
@@ -1939,13 +1939,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3647</v>
+        <v>3733</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2667</v>
+        <v>2562</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
@@ -1956,19 +1956,19 @@
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1736</v>
+        <v>1638</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5483</v>
+        <v>5262</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3321</v>
+        <v>3413</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1700</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="7">
@@ -1979,36 +1979,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15447</v>
+        <v>15859</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13176</v>
+        <v>13068</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9070</v>
+        <v>10390</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>8169</v>
+        <v>8547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4437</v>
+        <v>5124</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>16045</v>
+        <v>15775</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19745</v>
+        <v>19720</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>14433</v>
+        <v>14094</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>9155</v>
+        <v>9004</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16513</v>
+        <v>18148</v>
       </c>
     </row>
     <row r="8">
@@ -2111,33 +2111,33 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4938</v>
+        <v>5565</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3678</v>
+        <v>3619</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3022</v>
+        <v>3036</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>7512</v>
+        <v>8253</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3647</v>
+        <v>3713</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5048</v>
+        <v>5179</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0</v>
@@ -2151,36 +2151,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19650</v>
+        <v>19390</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16493</v>
+        <v>15550</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14245</v>
+        <v>13401</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>10246</v>
+        <v>9649</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>8173</v>
+        <v>7380</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>4590</v>
+        <v>4924</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24206</v>
+        <v>25984</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>16380</v>
+        <v>15918</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>18168</v>
+        <v>18510</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>4330</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="12">
@@ -2283,16 +2283,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5523</v>
+        <v>5474</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>932</v>
+        <v>1598</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2303,16 +2303,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>963</v>
+        <v>1015</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5656</v>
+        <v>5357</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1290</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="15">
@@ -2323,36 +2323,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8614</v>
+        <v>7899</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19166</v>
+        <v>18876</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10373</v>
+        <v>11306</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10043</v>
+        <v>10525</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6171</v>
+        <v>4913</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4366</v>
+        <v>4995</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9113</v>
+        <v>9987</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>19600</v>
+        <v>19045</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11592</v>
+        <v>11404</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10951</v>
+        <v>10197</v>
       </c>
     </row>
     <row r="16">
@@ -2455,36 +2455,36 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4247</v>
+        <v>4291</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1110</v>
+        <v>1068</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>927</v>
+        <v>1129</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="J18" s="6" t="inlineStr"/>
       <c r="K18" s="6" t="n">
-        <v>1739</v>
+        <v>1117</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4309</v>
+        <v>4292</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3180</v>
+        <v>3158</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1150</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="19">
@@ -2495,36 +2495,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10518</v>
+        <v>11062</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18089</v>
+        <v>20030</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9868</v>
+        <v>10746</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10109</v>
+        <v>9281</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5040</v>
+        <v>4487</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>9494</v>
+        <v>8615</v>
       </c>
       <c r="J19" s="6" t="inlineStr"/>
       <c r="K19" s="6" t="n">
-        <v>12288</v>
+        <v>12980</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>19577</v>
+        <v>19229</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14719</v>
+        <v>14109</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>9591</v>
+        <v>8997</v>
       </c>
     </row>
     <row r="20">
@@ -2627,16 +2627,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2643</v>
+        <v>2713</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3362</v>
+        <v>3404</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3176</v>
+        <v>3024</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
@@ -2644,19 +2644,19 @@
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>685</v>
+        <v>614</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>2641</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1631</v>
+        <v>1768</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3416</v>
+        <v>3394</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5150</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="23">
@@ -2667,36 +2667,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11972</v>
+        <v>12152</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7955</v>
+        <v>7054</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15730</v>
+        <v>15065</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>13331</v>
+        <v>12485</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>6253</v>
+        <v>7003</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>6053</v>
+        <v>5525</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11978</v>
+        <v>11988</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>9706</v>
+        <v>10141</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>15843</v>
+        <v>15940</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>15945</v>
+        <v>16322</v>
       </c>
     </row>
     <row r="24">
@@ -2802,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1116</v>
+        <v>1098</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
@@ -2820,13 +2820,13 @@
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>1510</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="27">
@@ -2837,34 +2837,34 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4613</v>
+        <v>3758</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8654</v>
+        <v>8473</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7420</v>
+        <v>8963</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7251</v>
+        <v>6971</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>2562</v>
+        <v>3090</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4629</v>
+        <v>3864</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>10263</v>
+        <v>8084</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>8299</v>
+        <v>8073</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>7737</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="28">
@@ -2967,14 +2967,14 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="inlineStr"/>
@@ -2983,14 +2983,14 @@
         <v>0</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="L30" s="6" t="inlineStr"/>
       <c r="M30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1077</v>
+        <v>989</v>
       </c>
     </row>
     <row r="31">
@@ -3001,30 +3001,30 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7356</v>
+        <v>7383</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>5306</v>
+        <v>6204</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5896</v>
+        <v>5866</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>2404</v>
+        <v>2265</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>7752</v>
+        <v>7218</v>
       </c>
       <c r="L31" s="6" t="inlineStr"/>
       <c r="M31" s="6" t="n">
-        <v>6873</v>
+        <v>5622</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>6733</v>
+        <v>6808</v>
       </c>
     </row>
     <row r="32">
@@ -3127,40 +3127,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>24095</v>
+        <v>24476</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>28832</v>
+        <v>29276</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>21496</v>
+        <v>21771</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13036</v>
+        <v>12348</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3519</v>
+        <v>3491</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2164</v>
+        <v>2091</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>5750</v>
+        <v>5281</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>30971</v>
+        <v>32308</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>31946</v>
+        <v>31955</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>27058</v>
+        <v>27384</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>22034</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="35">
@@ -3171,40 +3171,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>48903</v>
+        <v>48368</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>55439</v>
+        <v>57648</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>43982</v>
+        <v>43884</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>29287</v>
+        <v>29638</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>16576</v>
+        <v>16487</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>8157</v>
+        <v>8976</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>12992</v>
+        <v>12365</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>23718</v>
+        <v>21233</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>57702</v>
+        <v>59383</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>59102</v>
+        <v>58380</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>52694</v>
+        <v>52755</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>44359</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="36">
